--- a/Framework/src/main/resources/com/aspiresys/resources/outputFile.xlsx
+++ b/Framework/src/main/resources/com/aspiresys/resources/outputFile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="30">
   <si>
     <t>Test Case</t>
   </si>
@@ -80,10 +80,22 @@
     <t>signinbutton</t>
   </si>
   <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>https://github.com/login04</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>TC03</t>
   </si>
   <si>
     <t>dummy03</t>
+  </si>
+  <si>
+    <t>TC04</t>
   </si>
   <si>
     <t>TC05</t>
@@ -97,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -120,8 +132,18 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +168,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -179,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -200,14 +232,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -446,107 +492,107 @@
         <v>9</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="21">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s" s="21">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s" s="21">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s" s="21">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="27">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s" s="27">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s" s="27">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s" s="27">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s" s="27">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s" s="27">
-        <v>5</v>
+      <c r="F18" s="27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>11</v>
@@ -560,13 +606,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>11</v>
@@ -580,75 +626,235 @@
         <v>9</v>
       </c>
       <c r="C21" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="34">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s" s="34">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="34">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s" s="34">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s" s="34">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="32" t="s">
+      <c r="D26" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s" s="41">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s" s="41">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s" s="41">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="34" t="s">
+      <c r="F31" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D32" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="36" t="s">
+      <c r="E32" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D33" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E33" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="38" t="s">
+      <c r="F33" s="51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D34" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="39" t="s">
+      <c r="E34" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="53" t="s">
         <v>11</v>
       </c>
     </row>
